--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,19 +122,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -230,6 +261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,24 +508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="27.42578125" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
@@ -606,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
     </row>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>day</t>
   </si>
@@ -49,12 +49,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>outermost task</t>
-  </si>
-  <si>
-    <t>innermost task</t>
-  </si>
-  <si>
     <t>task path</t>
   </si>
   <si>
@@ -68,6 +62,32 @@
   </si>
   <si>
     <t>mental health</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Get The 3 Best Books For The Defined Goal</t>
+  </si>
+  <si>
+    <t>2:00:20</t>
+  </si>
+  <si>
+    <t>_Know the goal: to perform CFD simulation to verify thermal management of M31 PS in 400 hrs
+_Search for recommendation
+_Sumarize essential modules</t>
+  </si>
+  <si>
+    <t>4:50:00</t>
+  </si>
+  <si>
+    <t>week</t>
   </si>
 </sst>
 </file>
@@ -154,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -166,6 +186,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,23 +538,22 @@
   <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="2" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
@@ -547,46 +575,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="AA1" s="1">
         <v>0</v>
@@ -673,9 +701,121 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
+    <sheet name="KeyHierarchy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>day</t>
   </si>
@@ -49,51 +50,31 @@
     <t>duration</t>
   </si>
   <si>
-    <t>task path</t>
-  </si>
-  <si>
-    <t>further description</t>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>physical health</t>
-  </si>
-  <si>
-    <t>mental health</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>Get The 3 Best Books For The Defined Goal</t>
-  </si>
-  <si>
-    <t>2:00:20</t>
-  </si>
-  <si>
-    <t>_Know the goal: to perform CFD simulation to verify thermal management of M31 PS in 400 hrs
-_Search for recommendation
-_Sumarize essential modules</t>
-  </si>
-  <si>
-    <t>4:50:00</t>
-  </si>
-  <si>
     <t>week</t>
+  </si>
+  <si>
+    <t>task description</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>parent key</t>
+  </si>
+  <si>
+    <t>more information</t>
+  </si>
+  <si>
+    <t>key description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,14 +169,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,23 +286,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -342,23 +321,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:EL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,16 +514,11 @@
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="45.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="45.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:142" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -595,225 +552,409 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1">
+        <v>8</v>
+      </c>
+      <c r="X1" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>6</v>
-      </c>
       <c r="AH1" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AI1" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AJ1" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AK1" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AL1" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AM1" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AN1" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AO1" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AP1" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AQ1" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AR1" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AS1" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AT1" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AU1" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AV1" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AW1" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AX1" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AY1" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AZ1" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="BA1" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="BB1" s="1">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>43</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>46</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>47</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>48</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>63</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>64</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>65</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>67</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>68</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>69</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>70</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>71</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>72</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>73</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>74</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>75</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>76</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>89</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>90</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>91</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>92</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>93</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>94</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>95</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>96</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>97</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>98</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>99</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>100</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>101</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>102</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>103</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>104</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>105</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>106</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>107</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>108</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>109</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>110</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>111</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>112</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>113</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>114</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>115</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>116</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>117</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>118</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>119</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>120</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>121</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>122</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>123</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>124</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>125</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>126</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4">
-        <v>55</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4">
-        <v>55</v>
-      </c>
-      <c r="K2" s="4">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:142" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="6"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:54" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:142" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="6"/>
+      <c r="N3" s="7"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -821,4 +962,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>day</t>
   </si>
@@ -50,9 +50,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
@@ -69,6 +66,21 @@
   </si>
   <si>
     <t>key description</t>
+  </si>
+  <si>
+    <t>AscenX</t>
+  </si>
+  <si>
+    <t>SETeam</t>
+  </si>
+  <si>
+    <t>SETraining</t>
+  </si>
+  <si>
+    <t>CMSProject</t>
+  </si>
+  <si>
+    <t>IoTProject</t>
   </si>
 </sst>
 </file>
@@ -181,17 +193,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -556,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1">
         <v>0</v>
@@ -966,38 +979,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>day</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>IoTProject</t>
+  </si>
+  <si>
+    <t>iotMonitor4uhv2n4</t>
+  </si>
+  <si>
+    <t>cfdInvestigation</t>
+  </si>
+  <si>
+    <t>FanReplica</t>
+  </si>
+  <si>
+    <t>MultidimentionalVisualization</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,19 +190,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,10 +513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL5"/>
+  <dimension ref="A1:EL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="45.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -565,7 +568,7 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -959,17 +962,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:142" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="6"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:142" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="6"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="2" spans="1:142" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -980,69 +975,98 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="12" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="42" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="69">
   <si>
     <t>day</t>
   </si>
@@ -89,16 +89,145 @@
     <t>cfdInvestigation</t>
   </si>
   <si>
-    <t>FanReplica</t>
-  </si>
-  <si>
-    <t>MultidimentionalVisualization</t>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>UHV2Worker</t>
+  </si>
+  <si>
+    <t>00:05:23</t>
+  </si>
+  <si>
+    <t>anqtdebug.h</t>
+  </si>
+  <si>
+    <t>Add colored debug messages, and output redirection to a file</t>
+  </si>
+  <si>
+    <t>00:28:47</t>
+  </si>
+  <si>
+    <t>01:14:20</t>
+  </si>
+  <si>
+    <t>try to complete UHV2Worker and test</t>
+  </si>
+  <si>
+    <t>00:16:26</t>
+  </si>
+  <si>
+    <t>00:08:42</t>
+  </si>
+  <si>
+    <t>00:12:29</t>
+  </si>
+  <si>
+    <t>00:50:12</t>
+  </si>
+  <si>
+    <t>00:23:27</t>
+  </si>
+  <si>
+    <t>00:51:51</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>write test app</t>
+  </si>
+  <si>
+    <t>00:39:39</t>
+  </si>
+  <si>
+    <t>00:38:29</t>
+  </si>
+  <si>
+    <t>00:49:54</t>
+  </si>
+  <si>
+    <t>00:50:23</t>
+  </si>
+  <si>
+    <t>00:29:41</t>
+  </si>
+  <si>
+    <t>00:13:18</t>
+  </si>
+  <si>
+    <t>01:13:58</t>
+  </si>
+  <si>
+    <t>00:36:22</t>
+  </si>
+  <si>
+    <t>00:18:31</t>
+  </si>
+  <si>
+    <t>00:08:34</t>
+  </si>
+  <si>
+    <t>00:08:04</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>test + revise</t>
+  </si>
+  <si>
+    <t>02:34:36</t>
+  </si>
+  <si>
+    <t>Test PiCustomOS with Qt5.8</t>
+  </si>
+  <si>
+    <t>test + report to Tam</t>
+  </si>
+  <si>
+    <t>00:19:19</t>
+  </si>
+  <si>
+    <t>00:10:59</t>
+  </si>
+  <si>
+    <t>test + debug + revise</t>
+  </si>
+  <si>
+    <t>01:28:55</t>
+  </si>
+  <si>
+    <t>00:00:30</t>
+  </si>
+  <si>
+    <t>00:21:34</t>
+  </si>
+  <si>
+    <t>01:29:19</t>
+  </si>
+  <si>
+    <t>CANTestApp</t>
+  </si>
+  <si>
+    <t>Test + Debug + Verify. This app is written about two months ago, however it is not tested and verified.</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,6 +430,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,10 +676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL2"/>
+  <dimension ref="A1:EL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +694,15 @@
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="45.7109375" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="26.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="38.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="43" style="2" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="45" style="2" customWidth="1"/>
+    <col min="21" max="21" width="47.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:142" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,8 +1134,1572 @@
       </c>
     </row>
     <row r="2" spans="1:142" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:142" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:142" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>55</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="2">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>38</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="2">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>56</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="2">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="2">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11</v>
+      </c>
+      <c r="J14" s="2">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E15" s="2">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E16" s="2">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" s="2">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2">
+        <v>54</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E17" s="2">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2">
+        <v>26</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E18" s="2">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>38</v>
+      </c>
+      <c r="K18" s="2">
+        <v>29</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="2">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>55</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="2">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2">
+        <v>58</v>
+      </c>
+      <c r="K20" s="2">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E21" s="2">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>59</v>
+      </c>
+      <c r="I21" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="2">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>39</v>
+      </c>
+      <c r="K22" s="2">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E23" s="2">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2">
+        <v>59</v>
+      </c>
+      <c r="K23" s="2">
+        <v>32</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2">
+        <v>53</v>
+      </c>
+      <c r="I25" s="2">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>48</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E26" s="2">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E27" s="2">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2">
+        <v>39</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E28" s="2">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>16</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E29" s="2">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
+        <v>36</v>
+      </c>
+      <c r="I29" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,10 +2710,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,19 +2791,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t>day</t>
   </si>
@@ -222,6 +222,60 @@
   </si>
   <si>
     <t>00:10:12</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>CanBusWorker</t>
+  </si>
+  <si>
+    <t>logic design + state diagram</t>
+  </si>
+  <si>
+    <t>00:25:19</t>
+  </si>
+  <si>
+    <t>read references to find any good idea</t>
+  </si>
+  <si>
+    <t>00:28:07</t>
+  </si>
+  <si>
+    <t>00:51:28</t>
+  </si>
+  <si>
+    <t>logic design + raw sketch + raw code</t>
+  </si>
+  <si>
+    <t>00:39:08</t>
+  </si>
+  <si>
+    <t>00:20:47</t>
+  </si>
+  <si>
+    <t>00:10:10</t>
+  </si>
+  <si>
+    <t>naive sketch</t>
+  </si>
+  <si>
+    <t>00:17:27</t>
+  </si>
+  <si>
+    <t>00:46:40</t>
+  </si>
+  <si>
+    <t>01:05:37</t>
+  </si>
+  <si>
+    <t>00:07:33</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>00:10:16</t>
   </si>
 </sst>
 </file>
@@ -676,7 +730,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL29"/>
+  <dimension ref="A1:EL41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -2701,6 +2755,678 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E30" s="2">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>57</v>
+      </c>
+      <c r="H30" s="2">
+        <v>55</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2">
+        <v>15</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E31" s="2">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2">
+        <v>13</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>21</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E32" s="2">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2">
+        <v>47</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E33" s="2">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <v>10</v>
+      </c>
+      <c r="K33" s="2">
+        <v>15</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="2">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
+        <v>31</v>
+      </c>
+      <c r="K34" s="2">
+        <v>57</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="2">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8</v>
+      </c>
+      <c r="I35" s="2">
+        <v>11</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2">
+        <v>19</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E36" s="2">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>10</v>
+      </c>
+      <c r="H36" s="2">
+        <v>21</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2">
+        <v>27</v>
+      </c>
+      <c r="K36" s="2">
+        <v>48</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E37" s="2">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2">
+        <v>42</v>
+      </c>
+      <c r="I37" s="2">
+        <v>12</v>
+      </c>
+      <c r="J37" s="2">
+        <v>15</v>
+      </c>
+      <c r="K37" s="2">
+        <v>22</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45</v>
+      </c>
+      <c r="I38" s="2">
+        <v>14</v>
+      </c>
+      <c r="J38" s="2">
+        <v>50</v>
+      </c>
+      <c r="K38" s="2">
+        <v>22</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E39" s="2">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>43</v>
+      </c>
+      <c r="H39" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" s="2">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2">
+        <v>51</v>
+      </c>
+      <c r="K39" s="2">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E40" s="2">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2">
+        <v>50</v>
+      </c>
+      <c r="I40" s="2">
+        <v>16</v>
+      </c>
+      <c r="J40" s="2">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E41" s="2">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>44</v>
+      </c>
+      <c r="I41" s="2">
+        <v>17</v>
+      </c>
+      <c r="J41" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="89">
   <si>
     <t>day</t>
   </si>
@@ -276,12 +276,18 @@
   </si>
   <si>
     <t>00:10:16</t>
+  </si>
+  <si>
+    <t>naive state diagram</t>
+  </si>
+  <si>
+    <t>03:27:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,23 +490,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,23 +525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,7 +702,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL41"/>
+  <dimension ref="A1:EL42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -3427,6 +3399,62 @@
         <v>22</v>
       </c>
     </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E42" s="2">
+        <v>24</v>
+      </c>
+      <c r="F42" s="2">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2">
+        <v>23</v>
+      </c>
+      <c r="J42" s="2">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>59</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
   <si>
     <t>day</t>
   </si>
@@ -282,12 +282,60 @@
   </si>
   <si>
     <t>03:27:44</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>00:56:12</t>
+  </si>
+  <si>
+    <t>detailed state diagram</t>
+  </si>
+  <si>
+    <t>00:50:13</t>
+  </si>
+  <si>
+    <t>Clone TamCustomOSForPi</t>
+  </si>
+  <si>
+    <t>clone + store</t>
+  </si>
+  <si>
+    <t>00:05:31</t>
+  </si>
+  <si>
+    <t>00:18:58</t>
+  </si>
+  <si>
+    <t>Pi 5.8 Deployment Library</t>
+  </si>
+  <si>
+    <t>investigate http://doc.qt.io/qt-5/windows-deployment.html + try to make binary file qt 5.8 run on Pi with qt 5.3 via standalone library file</t>
+  </si>
+  <si>
+    <t>00:35:33</t>
+  </si>
+  <si>
+    <t>02:31:07</t>
+  </si>
+  <si>
+    <t>00:44:55</t>
+  </si>
+  <si>
+    <t>QtAppSelfContainerGenerator</t>
+  </si>
+  <si>
+    <t>directly write a console application</t>
+  </si>
+  <si>
+    <t>00:35:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +784,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL42"/>
+  <dimension ref="A1:EL50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -3455,6 +3537,454 @@
         <v>22</v>
       </c>
     </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E43" s="2">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2">
+        <v>22</v>
+      </c>
+      <c r="H43" s="2">
+        <v>13</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2">
+        <v>26</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E44" s="2">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" s="2">
+        <v>9</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>51</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E45" s="2">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>9</v>
+      </c>
+      <c r="J45" s="2">
+        <v>15</v>
+      </c>
+      <c r="K45" s="2">
+        <v>38</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E46" s="2">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9</v>
+      </c>
+      <c r="J46" s="2">
+        <v>46</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="2">
+        <v>24</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2">
+        <v>48</v>
+      </c>
+      <c r="H47" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E48" s="2">
+        <v>24</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44</v>
+      </c>
+      <c r="I48" s="2">
+        <v>13</v>
+      </c>
+      <c r="J48" s="2">
+        <v>10</v>
+      </c>
+      <c r="K48" s="2">
+        <v>52</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E49" s="2">
+        <v>24</v>
+      </c>
+      <c r="F49" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>14</v>
+      </c>
+      <c r="J49" s="2">
+        <v>52</v>
+      </c>
+      <c r="K49" s="2">
+        <v>58</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E50" s="2">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>31</v>
+      </c>
+      <c r="H50" s="2">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2">
+        <v>16</v>
+      </c>
+      <c r="J50" s="2">
+        <v>7</v>
+      </c>
+      <c r="K50" s="2">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="116">
   <si>
     <t>day</t>
   </si>
@@ -330,6 +330,39 @@
   </si>
   <si>
     <t>00:35:25</t>
+  </si>
+  <si>
+    <t>Update AR36912 Log</t>
+  </si>
+  <si>
+    <t>00:37:08</t>
+  </si>
+  <si>
+    <t>00:11:40</t>
+  </si>
+  <si>
+    <t>00:59:30</t>
+  </si>
+  <si>
+    <t>02:03:51</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>code + revise</t>
+  </si>
+  <si>
+    <t>01:11:18</t>
+  </si>
+  <si>
+    <t>00:40:06</t>
+  </si>
+  <si>
+    <t>00:19:21</t>
+  </si>
+  <si>
+    <t>00:49:00</t>
   </si>
 </sst>
 </file>
@@ -784,10 +817,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL50"/>
+  <dimension ref="A1:EL59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,9 +4018,507 @@
         <v>22</v>
       </c>
     </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E51" s="2">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2">
+        <v>29</v>
+      </c>
+      <c r="H51" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6</v>
+      </c>
+      <c r="K51" s="2">
+        <v>49</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E52" s="2">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7</v>
+      </c>
+      <c r="H52" s="2">
+        <v>9</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2">
+        <v>50</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E53" s="2">
+        <v>25</v>
+      </c>
+      <c r="F53" s="2">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" s="2">
+        <v>9</v>
+      </c>
+      <c r="J53" s="2">
+        <v>36</v>
+      </c>
+      <c r="K53" s="2">
+        <v>10</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="2">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E54" s="2">
+        <v>25</v>
+      </c>
+      <c r="F54" s="2">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8</v>
+      </c>
+      <c r="I54" s="2">
+        <v>12</v>
+      </c>
+      <c r="J54" s="2">
+        <v>10</v>
+      </c>
+      <c r="K54" s="2">
+        <v>59</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E55" s="2">
+        <v>25</v>
+      </c>
+      <c r="F55" s="2">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" s="2">
+        <v>13</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4</v>
+      </c>
+      <c r="K55" s="2">
+        <v>51</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E56" s="2">
+        <v>25</v>
+      </c>
+      <c r="F56" s="2">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2">
+        <v>14</v>
+      </c>
+      <c r="J56" s="2">
+        <v>16</v>
+      </c>
+      <c r="K56" s="2">
+        <v>24</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="2">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E57" s="2">
+        <v>25</v>
+      </c>
+      <c r="F57" s="2">
+        <v>15</v>
+      </c>
+      <c r="G57" s="2">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" s="2">
+        <v>15</v>
+      </c>
+      <c r="J57" s="2">
+        <v>51</v>
+      </c>
+      <c r="K57" s="2">
+        <v>24</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E58" s="2">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2">
+        <v>15</v>
+      </c>
+      <c r="G58" s="2">
+        <v>53</v>
+      </c>
+      <c r="H58" s="2">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2">
+        <v>16</v>
+      </c>
+      <c r="J58" s="2">
+        <v>12</v>
+      </c>
+      <c r="K58" s="2">
+        <v>25</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="2">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2">
+        <v>16</v>
+      </c>
+      <c r="G59" s="2">
+        <v>47</v>
+      </c>
+      <c r="H59" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" s="2">
+        <v>17</v>
+      </c>
+      <c r="J59" s="2">
+        <v>36</v>
+      </c>
+      <c r="K59" s="2">
+        <v>18</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2:E2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3996,7 +4527,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="117">
   <si>
     <t>day</t>
   </si>
@@ -363,12 +363,15 @@
   </si>
   <si>
     <t>00:49:00</t>
+  </si>
+  <si>
+    <t>02:57:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,23 +574,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -623,23 +609,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,7 +786,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL59"/>
+  <dimension ref="A1:EL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4513,6 +4482,62 @@
         <v>22</v>
       </c>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E60" s="2">
+        <v>25</v>
+      </c>
+      <c r="F60" s="2">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2">
+        <v>42</v>
+      </c>
+      <c r="H60" s="2">
+        <v>37</v>
+      </c>
+      <c r="I60" s="2">
+        <v>23</v>
+      </c>
+      <c r="J60" s="2">
+        <v>40</v>
+      </c>
+      <c r="K60" s="2">
+        <v>32</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="131">
   <si>
     <t>day</t>
   </si>
@@ -366,12 +366,54 @@
   </si>
   <si>
     <t>02:57:55</t>
+  </si>
+  <si>
+    <t>code + logic test + revise</t>
+  </si>
+  <si>
+    <t>00:37:51</t>
+  </si>
+  <si>
+    <t>01:25:32</t>
+  </si>
+  <si>
+    <t>AutoUpdatePiSG</t>
+  </si>
+  <si>
+    <t>failed to work at SG -&gt; try to fix</t>
+  </si>
+  <si>
+    <t>00:13:56</t>
+  </si>
+  <si>
+    <t>00:41:44</t>
+  </si>
+  <si>
+    <t>01:46:53</t>
+  </si>
+  <si>
+    <t>01:37:42</t>
+  </si>
+  <si>
+    <t>00:05:47</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
+  </si>
+  <si>
+    <t>code test app + revise</t>
+  </si>
+  <si>
+    <t>00:53:24</t>
+  </si>
+  <si>
+    <t>00:44:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,6 +616,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -609,6 +668,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,7 +862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL60"/>
+  <dimension ref="A1:EL70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4538,6 +4614,566 @@
         <v>22</v>
       </c>
     </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E61" s="2">
+        <v>25</v>
+      </c>
+      <c r="F61" s="2">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2">
+        <v>53</v>
+      </c>
+      <c r="H61" s="2">
+        <v>13</v>
+      </c>
+      <c r="I61" s="2">
+        <v>7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>31</v>
+      </c>
+      <c r="K61" s="2">
+        <v>4</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E62" s="2">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>48</v>
+      </c>
+      <c r="H62" s="2">
+        <v>58</v>
+      </c>
+      <c r="I62" s="2">
+        <v>9</v>
+      </c>
+      <c r="J62" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" s="2">
+        <v>30</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="2">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E63" s="2">
+        <v>25</v>
+      </c>
+      <c r="F63" s="2">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2">
+        <v>58</v>
+      </c>
+      <c r="I63" s="2">
+        <v>9</v>
+      </c>
+      <c r="J63" s="2">
+        <v>28</v>
+      </c>
+      <c r="K63" s="2">
+        <v>54</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="2">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E64" s="2">
+        <v>25</v>
+      </c>
+      <c r="F64" s="2">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>31</v>
+      </c>
+      <c r="H64" s="2">
+        <v>57</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10</v>
+      </c>
+      <c r="J64" s="2">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2">
+        <v>42</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="2">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E65" s="2">
+        <v>25</v>
+      </c>
+      <c r="F65" s="2">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>55</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="2">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E66" s="2">
+        <v>25</v>
+      </c>
+      <c r="F66" s="2">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2">
+        <v>22</v>
+      </c>
+      <c r="H66" s="2">
+        <v>24</v>
+      </c>
+      <c r="I66" s="2">
+        <v>15</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>6</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="2">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E67" s="2">
+        <v>25</v>
+      </c>
+      <c r="F67" s="2">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2">
+        <v>34</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
+      <c r="I67" s="2">
+        <v>15</v>
+      </c>
+      <c r="J67" s="2">
+        <v>39</v>
+      </c>
+      <c r="K67" s="2">
+        <v>53</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="2">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E68" s="2">
+        <v>25</v>
+      </c>
+      <c r="F68" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>54</v>
+      </c>
+      <c r="H68" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" s="2">
+        <v>15</v>
+      </c>
+      <c r="J68" s="2">
+        <v>54</v>
+      </c>
+      <c r="K68" s="2">
+        <v>52</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="2">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E69" s="2">
+        <v>25</v>
+      </c>
+      <c r="F69" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2">
+        <v>55</v>
+      </c>
+      <c r="H69" s="2">
+        <v>11</v>
+      </c>
+      <c r="I69" s="2">
+        <v>16</v>
+      </c>
+      <c r="J69" s="2">
+        <v>48</v>
+      </c>
+      <c r="K69" s="2">
+        <v>36</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="2">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E70" s="2">
+        <v>25</v>
+      </c>
+      <c r="F70" s="2">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>37</v>
+      </c>
+      <c r="I70" s="2">
+        <v>17</v>
+      </c>
+      <c r="J70" s="2">
+        <v>50</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="146">
   <si>
     <t>day</t>
   </si>
@@ -408,6 +408,51 @@
   </si>
   <si>
     <t>00:44:23</t>
+  </si>
+  <si>
+    <t>logic test</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>test on Pi</t>
+  </si>
+  <si>
+    <t>00:07:13</t>
+  </si>
+  <si>
+    <t>make Pi able to build CanBusWorker</t>
+  </si>
+  <si>
+    <t>try many ways</t>
+  </si>
+  <si>
+    <t>00:34:46</t>
+  </si>
+  <si>
+    <t>01:13:55</t>
+  </si>
+  <si>
+    <t>add preprocessing code for pi adaptation</t>
+  </si>
+  <si>
+    <t>00:26:29</t>
+  </si>
+  <si>
+    <t>00:10:52</t>
+  </si>
+  <si>
+    <t>00:24:33</t>
+  </si>
+  <si>
+    <t>01:09:53</t>
+  </si>
+  <si>
+    <t>debug on pi</t>
+  </si>
+  <si>
+    <t>00:26:44</t>
   </si>
 </sst>
 </file>
@@ -862,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL70"/>
+  <dimension ref="A1:EL79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -5174,6 +5219,510 @@
         <v>22</v>
       </c>
     </row>
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E71" s="2">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2">
+        <v>7</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>32</v>
+      </c>
+      <c r="I71" s="2">
+        <v>9</v>
+      </c>
+      <c r="J71" s="2">
+        <v>41</v>
+      </c>
+      <c r="K71" s="2">
+        <v>33</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="2">
+        <v>21</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E72" s="2">
+        <v>25</v>
+      </c>
+      <c r="F72" s="2">
+        <v>9</v>
+      </c>
+      <c r="G72" s="2">
+        <v>41</v>
+      </c>
+      <c r="H72" s="2">
+        <v>47</v>
+      </c>
+      <c r="I72" s="2">
+        <v>9</v>
+      </c>
+      <c r="J72" s="2">
+        <v>49</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="2">
+        <v>21</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E73" s="2">
+        <v>25</v>
+      </c>
+      <c r="F73" s="2">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2">
+        <v>55</v>
+      </c>
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10</v>
+      </c>
+      <c r="J73" s="2">
+        <v>30</v>
+      </c>
+      <c r="K73" s="2">
+        <v>17</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="2">
+        <v>21</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E74" s="2">
+        <v>25</v>
+      </c>
+      <c r="F74" s="2">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2">
+        <v>48</v>
+      </c>
+      <c r="H74" s="2">
+        <v>14</v>
+      </c>
+      <c r="I74" s="2">
+        <v>12</v>
+      </c>
+      <c r="J74" s="2">
+        <v>2</v>
+      </c>
+      <c r="K74" s="2">
+        <v>9</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E75" s="2">
+        <v>25</v>
+      </c>
+      <c r="F75" s="2">
+        <v>13</v>
+      </c>
+      <c r="G75" s="2">
+        <v>9</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8</v>
+      </c>
+      <c r="I75" s="2">
+        <v>13</v>
+      </c>
+      <c r="J75" s="2">
+        <v>35</v>
+      </c>
+      <c r="K75" s="2">
+        <v>38</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="2">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E76" s="2">
+        <v>25</v>
+      </c>
+      <c r="F76" s="2">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2">
+        <v>52</v>
+      </c>
+      <c r="H76" s="2">
+        <v>3</v>
+      </c>
+      <c r="I76" s="2">
+        <v>14</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>55</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="2">
+        <v>21</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E77" s="2">
+        <v>25</v>
+      </c>
+      <c r="F77" s="2">
+        <v>15</v>
+      </c>
+      <c r="G77" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" s="2">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2">
+        <v>16</v>
+      </c>
+      <c r="J77" s="2">
+        <v>4</v>
+      </c>
+      <c r="K77" s="2">
+        <v>38</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="2">
+        <v>21</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E78" s="2">
+        <v>25</v>
+      </c>
+      <c r="F78" s="2">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2">
+        <v>23</v>
+      </c>
+      <c r="I78" s="2">
+        <v>17</v>
+      </c>
+      <c r="J78" s="2">
+        <v>27</v>
+      </c>
+      <c r="K78" s="2">
+        <v>17</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="2">
+        <v>21</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E79" s="2">
+        <v>25</v>
+      </c>
+      <c r="F79" s="2">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" s="2">
+        <v>8</v>
+      </c>
+      <c r="K79" s="2">
+        <v>38</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="154">
   <si>
     <t>day</t>
   </si>
@@ -453,6 +453,30 @@
   </si>
   <si>
     <t>00:26:44</t>
+  </si>
+  <si>
+    <t>SimpleCanDeviceOnPi</t>
+  </si>
+  <si>
+    <t>naive flowchart</t>
+  </si>
+  <si>
+    <t>01:20:58</t>
+  </si>
+  <si>
+    <t>00:36:54</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>00:21:32</t>
+  </si>
+  <si>
+    <t>00:13:21</t>
+  </si>
+  <si>
+    <t>00:34:48</t>
   </si>
 </sst>
 </file>
@@ -907,7 +931,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL79"/>
+  <dimension ref="A1:EL85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -5723,6 +5747,342 @@
         <v>22</v>
       </c>
     </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="2">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E80" s="2">
+        <v>25</v>
+      </c>
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2">
+        <v>53</v>
+      </c>
+      <c r="H80" s="2">
+        <v>9</v>
+      </c>
+      <c r="I80" s="2">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2">
+        <v>8</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="2">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E81" s="2">
+        <v>25</v>
+      </c>
+      <c r="F81" s="2">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2">
+        <v>4</v>
+      </c>
+      <c r="H81" s="2">
+        <v>59</v>
+      </c>
+      <c r="I81" s="2">
+        <v>9</v>
+      </c>
+      <c r="J81" s="2">
+        <v>41</v>
+      </c>
+      <c r="K81" s="2">
+        <v>53</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="2">
+        <v>22</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E82" s="2">
+        <v>25</v>
+      </c>
+      <c r="F82" s="2">
+        <v>9</v>
+      </c>
+      <c r="G82" s="2">
+        <v>51</v>
+      </c>
+      <c r="H82" s="2">
+        <v>29</v>
+      </c>
+      <c r="I82" s="2">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2">
+        <v>13</v>
+      </c>
+      <c r="K82" s="2">
+        <v>2</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="2">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E83" s="2">
+        <v>25</v>
+      </c>
+      <c r="F83" s="2">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2">
+        <v>17</v>
+      </c>
+      <c r="H83" s="2">
+        <v>14</v>
+      </c>
+      <c r="I83" s="2">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2">
+        <v>30</v>
+      </c>
+      <c r="K83" s="2">
+        <v>35</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="2">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E84" s="2">
+        <v>25</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2">
+        <v>32</v>
+      </c>
+      <c r="H84" s="2">
+        <v>11</v>
+      </c>
+      <c r="I84" s="2">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2">
+        <v>7</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="2">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E85" s="2">
+        <v>25</v>
+      </c>
+      <c r="F85" s="2">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2">
+        <v>30</v>
+      </c>
+      <c r="H85" s="2">
+        <v>48</v>
+      </c>
+      <c r="I85" s="2">
+        <v>11</v>
+      </c>
+      <c r="J85" s="2">
+        <v>38</v>
+      </c>
+      <c r="K85" s="2">
+        <v>2</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="159">
   <si>
     <t>day</t>
   </si>
@@ -477,6 +477,21 @@
   </si>
   <si>
     <t>00:34:48</t>
+  </si>
+  <si>
+    <t>try my new naive debug technique</t>
+  </si>
+  <si>
+    <t>00:37:21</t>
+  </si>
+  <si>
+    <t>00:23:18</t>
+  </si>
+  <si>
+    <t>00:50:53</t>
+  </si>
+  <si>
+    <t>01:11:07</t>
   </si>
 </sst>
 </file>
@@ -931,7 +946,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL85"/>
+  <dimension ref="A1:EL89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -6083,6 +6098,230 @@
         <v>22</v>
       </c>
     </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="2">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E86" s="2">
+        <v>25</v>
+      </c>
+      <c r="F86" s="2">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2">
+        <v>41</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43</v>
+      </c>
+      <c r="I86" s="2">
+        <v>12</v>
+      </c>
+      <c r="J86" s="2">
+        <v>19</v>
+      </c>
+      <c r="K86" s="2">
+        <v>4</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="2">
+        <v>22</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E87" s="2">
+        <v>25</v>
+      </c>
+      <c r="F87" s="2">
+        <v>13</v>
+      </c>
+      <c r="G87" s="2">
+        <v>20</v>
+      </c>
+      <c r="H87" s="2">
+        <v>50</v>
+      </c>
+      <c r="I87" s="2">
+        <v>13</v>
+      </c>
+      <c r="J87" s="2">
+        <v>44</v>
+      </c>
+      <c r="K87" s="2">
+        <v>8</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="2">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E88" s="2">
+        <v>25</v>
+      </c>
+      <c r="F88" s="2">
+        <v>14</v>
+      </c>
+      <c r="G88" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" s="2">
+        <v>7</v>
+      </c>
+      <c r="I88" s="2">
+        <v>15</v>
+      </c>
+      <c r="J88" s="2">
+        <v>7</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="2">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E89" s="2">
+        <v>25</v>
+      </c>
+      <c r="F89" s="2">
+        <v>15</v>
+      </c>
+      <c r="G89" s="2">
+        <v>15</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>16</v>
+      </c>
+      <c r="J89" s="2">
+        <v>26</v>
+      </c>
+      <c r="K89" s="2">
+        <v>9</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="178">
   <si>
     <t>day</t>
   </si>
@@ -492,6 +492,63 @@
   </si>
   <si>
     <t>01:11:07</t>
+  </si>
+  <si>
+    <t>anlogger.h</t>
+  </si>
+  <si>
+    <t>debug macro</t>
+  </si>
+  <si>
+    <t>01:24:49</t>
+  </si>
+  <si>
+    <t>01:00:17</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>00:33:01</t>
+  </si>
+  <si>
+    <t>00:04:42</t>
+  </si>
+  <si>
+    <t>00:27:45</t>
+  </si>
+  <si>
+    <t>00:08:46</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>00:31:08</t>
+  </si>
+  <si>
+    <t>01:41:22</t>
+  </si>
+  <si>
+    <t>00:50:41</t>
+  </si>
+  <si>
+    <t>01:12:22</t>
+  </si>
+  <si>
+    <t>00:21:04</t>
+  </si>
+  <si>
+    <t>00:56:07</t>
+  </si>
+  <si>
+    <t>SmallCoordinator</t>
+  </si>
+  <si>
+    <t>00:15:31</t>
+  </si>
+  <si>
+    <t>02:21:58</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1003,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL89"/>
+  <dimension ref="A1:EL104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -6322,6 +6379,846 @@
         <v>22</v>
       </c>
     </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E90" s="2">
+        <v>25</v>
+      </c>
+      <c r="F90" s="2">
+        <v>7</v>
+      </c>
+      <c r="G90" s="2">
+        <v>33</v>
+      </c>
+      <c r="H90" s="2">
+        <v>50</v>
+      </c>
+      <c r="I90" s="2">
+        <v>8</v>
+      </c>
+      <c r="J90" s="2">
+        <v>58</v>
+      </c>
+      <c r="K90" s="2">
+        <v>40</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E91" s="2">
+        <v>25</v>
+      </c>
+      <c r="F91" s="2">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2">
+        <v>58</v>
+      </c>
+      <c r="H91" s="2">
+        <v>8</v>
+      </c>
+      <c r="I91" s="2">
+        <v>10</v>
+      </c>
+      <c r="J91" s="2">
+        <v>58</v>
+      </c>
+      <c r="K91" s="2">
+        <v>26</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E92" s="2">
+        <v>25</v>
+      </c>
+      <c r="F92" s="2">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2">
+        <v>8</v>
+      </c>
+      <c r="H92" s="2">
+        <v>17</v>
+      </c>
+      <c r="I92" s="2">
+        <v>11</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8</v>
+      </c>
+      <c r="K92" s="2">
+        <v>34</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E93" s="2">
+        <v>25</v>
+      </c>
+      <c r="F93" s="2">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>28</v>
+      </c>
+      <c r="I93" s="2">
+        <v>11</v>
+      </c>
+      <c r="J93" s="2">
+        <v>42</v>
+      </c>
+      <c r="K93" s="2">
+        <v>30</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="2">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E94" s="2">
+        <v>25</v>
+      </c>
+      <c r="F94" s="2">
+        <v>13</v>
+      </c>
+      <c r="G94" s="2">
+        <v>10</v>
+      </c>
+      <c r="H94" s="2">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2">
+        <v>13</v>
+      </c>
+      <c r="J94" s="2">
+        <v>15</v>
+      </c>
+      <c r="K94" s="2">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="2">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E95" s="2">
+        <v>25</v>
+      </c>
+      <c r="F95" s="2">
+        <v>13</v>
+      </c>
+      <c r="G95" s="2">
+        <v>29</v>
+      </c>
+      <c r="H95" s="2">
+        <v>19</v>
+      </c>
+      <c r="I95" s="2">
+        <v>13</v>
+      </c>
+      <c r="J95" s="2">
+        <v>57</v>
+      </c>
+      <c r="K95" s="2">
+        <v>4</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="2">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E96" s="2">
+        <v>25</v>
+      </c>
+      <c r="F96" s="2">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2">
+        <v>57</v>
+      </c>
+      <c r="H96" s="2">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>14</v>
+      </c>
+      <c r="J96" s="2">
+        <v>6</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="2">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E97" s="2">
+        <v>25</v>
+      </c>
+      <c r="F97" s="2">
+        <v>15</v>
+      </c>
+      <c r="G97" s="2">
+        <v>20</v>
+      </c>
+      <c r="H97" s="2">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2">
+        <v>15</v>
+      </c>
+      <c r="J97" s="2">
+        <v>51</v>
+      </c>
+      <c r="K97" s="2">
+        <v>18</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="2">
+        <v>23</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E98" s="2">
+        <v>25</v>
+      </c>
+      <c r="F98" s="2">
+        <v>16</v>
+      </c>
+      <c r="G98" s="2">
+        <v>10</v>
+      </c>
+      <c r="H98" s="2">
+        <v>19</v>
+      </c>
+      <c r="I98" s="2">
+        <v>17</v>
+      </c>
+      <c r="J98" s="2">
+        <v>51</v>
+      </c>
+      <c r="K98" s="2">
+        <v>41</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="2">
+        <v>23</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E99" s="2">
+        <v>25</v>
+      </c>
+      <c r="F99" s="2">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2">
+        <v>58</v>
+      </c>
+      <c r="H99" s="2">
+        <v>52</v>
+      </c>
+      <c r="I99" s="2">
+        <v>18</v>
+      </c>
+      <c r="J99" s="2">
+        <v>49</v>
+      </c>
+      <c r="K99" s="2">
+        <v>34</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="2">
+        <v>26</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E100" s="2">
+        <v>26</v>
+      </c>
+      <c r="F100" s="2">
+        <v>7</v>
+      </c>
+      <c r="G100" s="2">
+        <v>28</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
+        <v>8</v>
+      </c>
+      <c r="J100" s="2">
+        <v>40</v>
+      </c>
+      <c r="K100" s="2">
+        <v>24</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="2">
+        <v>26</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E101" s="2">
+        <v>26</v>
+      </c>
+      <c r="F101" s="2">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2">
+        <v>49</v>
+      </c>
+      <c r="H101" s="2">
+        <v>23</v>
+      </c>
+      <c r="I101" s="2">
+        <v>9</v>
+      </c>
+      <c r="J101" s="2">
+        <v>10</v>
+      </c>
+      <c r="K101" s="2">
+        <v>27</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="2">
+        <v>26</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E102" s="2">
+        <v>26</v>
+      </c>
+      <c r="F102" s="2">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2">
+        <v>29</v>
+      </c>
+      <c r="H102" s="2">
+        <v>45</v>
+      </c>
+      <c r="I102" s="2">
+        <v>11</v>
+      </c>
+      <c r="J102" s="2">
+        <v>25</v>
+      </c>
+      <c r="K102" s="2">
+        <v>53</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E103" s="2">
+        <v>26</v>
+      </c>
+      <c r="F103" s="2">
+        <v>11</v>
+      </c>
+      <c r="G103" s="2">
+        <v>42</v>
+      </c>
+      <c r="H103" s="2">
+        <v>13</v>
+      </c>
+      <c r="I103" s="2">
+        <v>11</v>
+      </c>
+      <c r="J103" s="2">
+        <v>57</v>
+      </c>
+      <c r="K103" s="2">
+        <v>45</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
+        <v>26</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E104" s="2">
+        <v>26</v>
+      </c>
+      <c r="F104" s="2">
+        <v>13</v>
+      </c>
+      <c r="G104" s="2">
+        <v>6</v>
+      </c>
+      <c r="H104" s="2">
+        <v>57</v>
+      </c>
+      <c r="I104" s="2">
+        <v>15</v>
+      </c>
+      <c r="J104" s="2">
+        <v>28</v>
+      </c>
+      <c r="K104" s="2">
+        <v>55</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="180">
   <si>
     <t>day</t>
   </si>
@@ -549,12 +549,18 @@
   </si>
   <si>
     <t>02:21:58</t>
+  </si>
+  <si>
+    <t>04:28:55</t>
+  </si>
+  <si>
+    <t>00:19:16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,23 +763,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -809,23 +798,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1003,7 +975,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL104"/>
+  <dimension ref="A1:EL106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -7219,6 +7191,118 @@
         <v>22</v>
       </c>
     </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="2">
+        <v>26</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E105" s="2">
+        <v>26</v>
+      </c>
+      <c r="F105" s="2">
+        <v>19</v>
+      </c>
+      <c r="G105" s="2">
+        <v>28</v>
+      </c>
+      <c r="H105" s="2">
+        <v>28</v>
+      </c>
+      <c r="I105" s="2">
+        <v>23</v>
+      </c>
+      <c r="J105" s="2">
+        <v>57</v>
+      </c>
+      <c r="K105" s="2">
+        <v>24</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="2">
+        <v>27</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E106" s="2">
+        <v>26</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" s="2">
+        <v>51</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2">
+        <v>7</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="193">
   <si>
     <t>day</t>
   </si>
@@ -555,12 +555,51 @@
   </si>
   <si>
     <t>00:19:16</t>
+  </si>
+  <si>
+    <t>qt linux test</t>
+  </si>
+  <si>
+    <t>02:44:02</t>
+  </si>
+  <si>
+    <t>Report Template</t>
+  </si>
+  <si>
+    <t>Read &amp; Understand</t>
+  </si>
+  <si>
+    <t>01:33:53</t>
+  </si>
+  <si>
+    <t>revise + test</t>
+  </si>
+  <si>
+    <t>00:32:22</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>replied son question about ioT BW</t>
+  </si>
+  <si>
+    <t>00:23:29</t>
+  </si>
+  <si>
+    <t>test + revise + fix bug</t>
+  </si>
+  <si>
+    <t>01:59:58</t>
+  </si>
+  <si>
+    <t>00:14:11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,6 +802,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,6 +854,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -975,7 +1048,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL106"/>
+  <dimension ref="A1:EL112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -7303,6 +7376,330 @@
         <v>22</v>
       </c>
     </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="2">
+        <v>27</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E107" s="2">
+        <v>26</v>
+      </c>
+      <c r="F107" s="2">
+        <v>9</v>
+      </c>
+      <c r="G107" s="2">
+        <v>19</v>
+      </c>
+      <c r="H107" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" s="2">
+        <v>12</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="2">
+        <v>20</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="2">
+        <v>27</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E108" s="2">
+        <v>26</v>
+      </c>
+      <c r="F108" s="2">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2">
+        <v>3</v>
+      </c>
+      <c r="H108" s="2">
+        <v>46</v>
+      </c>
+      <c r="I108" s="2">
+        <v>15</v>
+      </c>
+      <c r="J108" s="2">
+        <v>37</v>
+      </c>
+      <c r="K108" s="2">
+        <v>40</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="2">
+        <v>27</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E109" s="2">
+        <v>26</v>
+      </c>
+      <c r="F109" s="2">
+        <v>16</v>
+      </c>
+      <c r="G109" s="2">
+        <v>11</v>
+      </c>
+      <c r="H109" s="2">
+        <v>16</v>
+      </c>
+      <c r="I109" s="2">
+        <v>16</v>
+      </c>
+      <c r="J109" s="2">
+        <v>43</v>
+      </c>
+      <c r="K109" s="2">
+        <v>38</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="2">
+        <v>27</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E110" s="2">
+        <v>26</v>
+      </c>
+      <c r="F110" s="2">
+        <v>16</v>
+      </c>
+      <c r="G110" s="2">
+        <v>56</v>
+      </c>
+      <c r="H110" s="2">
+        <v>8</v>
+      </c>
+      <c r="I110" s="2">
+        <v>17</v>
+      </c>
+      <c r="J110" s="2">
+        <v>19</v>
+      </c>
+      <c r="K110" s="2">
+        <v>38</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="2">
+        <v>27</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E111" s="2">
+        <v>26</v>
+      </c>
+      <c r="F111" s="2">
+        <v>17</v>
+      </c>
+      <c r="G111" s="2">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>19</v>
+      </c>
+      <c r="J111" s="2">
+        <v>20</v>
+      </c>
+      <c r="K111" s="2">
+        <v>28</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="2">
+        <v>27</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E112" s="2">
+        <v>26</v>
+      </c>
+      <c r="F112" s="2">
+        <v>19</v>
+      </c>
+      <c r="G112" s="2">
+        <v>46</v>
+      </c>
+      <c r="H112" s="2">
+        <v>31</v>
+      </c>
+      <c r="I112" s="2">
+        <v>20</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>43</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/BWTracker.xlsx
+++ b/BWTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="205">
   <si>
     <t>day</t>
   </si>
@@ -594,6 +594,42 @@
   </si>
   <si>
     <t>00:14:11</t>
+  </si>
+  <si>
+    <t>Learn Microsoft Access</t>
+  </si>
+  <si>
+    <t>00:03:27</t>
+  </si>
+  <si>
+    <t>https://www.lynda.com/learning-paths/Business/become-an-access-2013-microsoft-office-specialist</t>
+  </si>
+  <si>
+    <t>00:40:30</t>
+  </si>
+  <si>
+    <t>Find A Planning Template</t>
+  </si>
+  <si>
+    <t>00:14:14</t>
+  </si>
+  <si>
+    <t>00:56:18</t>
+  </si>
+  <si>
+    <t>state diagram</t>
+  </si>
+  <si>
+    <t>00:37:39</t>
+  </si>
+  <si>
+    <t>00:29:08</t>
+  </si>
+  <si>
+    <t>00:06:13</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1084,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:EL112"/>
+  <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -7700,6 +7736,421 @@
         <v>22</v>
       </c>
     </row>
+    <row r="113" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="2">
+        <v>28</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E113" s="2">
+        <v>26</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7</v>
+      </c>
+      <c r="G113" s="2">
+        <v>4</v>
+      </c>
+      <c r="H113" s="2">
+        <v>33</v>
+      </c>
+      <c r="I113" s="2">
+        <v>7</v>
+      </c>
+      <c r="J113" s="2">
+        <v>8</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="2">
+        <v>28</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E114" s="2">
+        <v>26</v>
+      </c>
+      <c r="F114" s="2">
+        <v>7</v>
+      </c>
+      <c r="G114" s="2">
+        <v>17</v>
+      </c>
+      <c r="H114" s="2">
+        <v>14</v>
+      </c>
+      <c r="I114" s="2">
+        <v>7</v>
+      </c>
+      <c r="J114" s="2">
+        <v>57</v>
+      </c>
+      <c r="K114" s="2">
+        <v>45</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E115" s="2">
+        <v>26</v>
+      </c>
+      <c r="F115" s="2">
+        <v>8</v>
+      </c>
+      <c r="G115" s="2">
+        <v>5</v>
+      </c>
+      <c r="H115" s="2">
+        <v>47</v>
+      </c>
+      <c r="I115" s="2">
+        <v>8</v>
+      </c>
+      <c r="J115" s="2">
+        <v>20</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="2">
+        <v>28</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E116" s="2">
+        <v>26</v>
+      </c>
+      <c r="F116" s="2">
+        <v>8</v>
+      </c>
+      <c r="G116" s="2">
+        <v>38</v>
+      </c>
+      <c r="H116" s="2">
+        <v>4</v>
+      </c>
+      <c r="I116" s="2">
+        <v>9</v>
+      </c>
+      <c r="J116" s="2">
+        <v>34</v>
+      </c>
+      <c r="K116" s="2">
+        <v>23</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="2">
+        <v>28</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E117" s="2">
+        <v>26</v>
+      </c>
+      <c r="F117" s="2">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2">
+        <v>33</v>
+      </c>
+      <c r="H117" s="2">
+        <v>58</v>
+      </c>
+      <c r="I117" s="2">
+        <v>12</v>
+      </c>
+      <c r="J117" s="2">
+        <v>11</v>
+      </c>
+      <c r="K117" s="2">
+        <v>38</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="2">
+        <v>28</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E118" s="2">
+        <v>26</v>
+      </c>
+      <c r="F118" s="2">
+        <v>13</v>
+      </c>
+      <c r="G118" s="2">
+        <v>48</v>
+      </c>
+      <c r="H118" s="2">
+        <v>24</v>
+      </c>
+      <c r="I118" s="2">
+        <v>14</v>
+      </c>
+      <c r="J118" s="2">
+        <v>17</v>
+      </c>
+      <c r="K118" s="2">
+        <v>33</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="2">
+        <v>28</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E119" s="2">
+        <v>26</v>
+      </c>
+      <c r="F119" s="2">
+        <v>16</v>
+      </c>
+      <c r="G119" s="2">
+        <v>47</v>
+      </c>
+      <c r="H119" s="2">
+        <v>44</v>
+      </c>
+      <c r="I119" s="2">
+        <v>16</v>
+      </c>
+      <c r="J119" s="2">
+        <v>53</v>
+      </c>
+      <c r="K119" s="2">
+        <v>58</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="2">
+        <v>29</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E120" s="2">
+        <v>26</v>
+      </c>
+      <c r="F120" s="2">
+        <v>7</v>
+      </c>
+      <c r="G120" s="2">
+        <v>26</v>
+      </c>
+      <c r="H120" s="2">
+        <v>14</v>
+      </c>
+      <c r="I120" s="2">
+        <v>7</v>
+      </c>
+      <c r="J120" s="2">
+        <v>26</v>
+      </c>
+      <c r="K120" s="2">
+        <v>19</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
